--- a/program_files/urban_district_upscaling/standard_parameters_dev.xlsx
+++ b/program_files/urban_district_upscaling/standard_parameters_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregor/Desktop/Arbeit/Git/SESMG/program_files/urban_district_upscaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF11E9-D37F-4247-8894-4BDD48992110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE33A498-6ED2-F14D-B0AE-E9C99BC43904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26620" activeTab="1" xr2:uid="{D48BE4BC-BA48-4DC0-B3DF-D04B8CFD99C7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26620" activeTab="2" xr2:uid="{D48BE4BC-BA48-4DC0-B3DF-D04B8CFD99C7}"/>
   </bookViews>
   <sheets>
     <sheet name="energysystem" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="341">
   <si>
     <t>start date</t>
   </si>
@@ -1061,6 +1061,15 @@
   </si>
   <si>
     <t>building_wood_bus</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>heat</t>
   </si>
 </sst>
 </file>
@@ -4717,7 +4726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6075F4E-6449-42F6-B0A2-E3B463F49D3C}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="AA65" sqref="AA65"/>
     </sheetView>
   </sheetViews>
@@ -5693,10 +5702,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A343EB-B652-4B18-B41E-28ABD2CDDDDD}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5705,7 +5714,7 @@
     <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -5733,11 +5742,14 @@
       <c r="I1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -5765,8 +5777,11 @@
       <c r="I3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -5794,8 +5809,11 @@
       <c r="I4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -5823,8 +5841,11 @@
       <c r="I5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -5852,8 +5873,11 @@
       <c r="I6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -5881,8 +5905,11 @@
       <c r="I7">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5910,8 +5937,11 @@
       <c r="I8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -5939,8 +5969,11 @@
       <c r="I9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6001,11 @@
       <c r="I10">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -5997,8 +6033,11 @@
       <c r="I11">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -6026,8 +6065,11 @@
       <c r="I12">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -6055,8 +6097,11 @@
       <c r="I13">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -6084,8 +6129,11 @@
       <c r="I14">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -6113,8 +6161,11 @@
       <c r="I15">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -6142,8 +6193,11 @@
       <c r="I16">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -6171,8 +6225,11 @@
       <c r="I17">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -6200,8 +6257,11 @@
       <c r="I18">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -6229,8 +6289,11 @@
       <c r="I19">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -6258,8 +6321,11 @@
       <c r="I20">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -6287,8 +6353,11 @@
       <c r="I21">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -6316,8 +6385,11 @@
       <c r="I22">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -6345,8 +6417,11 @@
       <c r="I23">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -6374,8 +6449,11 @@
       <c r="I24">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -6403,8 +6481,11 @@
       <c r="I25">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -6432,8 +6513,11 @@
       <c r="I26">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>96</v>
       </c>
@@ -6461,8 +6545,11 @@
       <c r="I27" s="9">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>97</v>
       </c>
@@ -6490,8 +6577,11 @@
       <c r="I28" s="9">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>98</v>
       </c>
@@ -6519,8 +6609,11 @@
       <c r="I29" s="9">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -6548,8 +6641,11 @@
       <c r="I30" s="9">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -6577,8 +6673,11 @@
       <c r="I31">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -6606,8 +6705,11 @@
       <c r="I32">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>103</v>
       </c>
@@ -6634,6 +6736,9 @@
       </c>
       <c r="I33" s="10">
         <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
